--- a/data/fakecsv/dept_SQ.xlsx
+++ b/data/fakecsv/dept_SQ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="105">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,256 +40,268 @@
     <t>SQ</t>
   </si>
   <si>
-    <t>ECLHGU9G22XRX1SYW</t>
-  </si>
-  <si>
-    <t>MXXFVS4H35T76BZK7</t>
-  </si>
-  <si>
-    <t>1TKM3XNB0DDKF7ULC</t>
-  </si>
-  <si>
-    <t>MM7V355N8R2YT2VGW</t>
-  </si>
-  <si>
-    <t>MZVY5W273PPVVH6G9</t>
-  </si>
-  <si>
-    <t>MUU7N9AW7EZJ991N5</t>
-  </si>
-  <si>
-    <t>19FZ61EL3VTZRHVKY</t>
-  </si>
-  <si>
-    <t>HAFYMKN17T1Y21EMD</t>
-  </si>
-  <si>
-    <t>A3P9V92X8L6P8MAUX</t>
-  </si>
-  <si>
-    <t>ENTM0B1L2Z3FH2TNK</t>
-  </si>
-  <si>
-    <t>X2NKTEWF9SDEZSTGP</t>
-  </si>
-  <si>
-    <t>SLV4YD705YN70LLAE</t>
-  </si>
-  <si>
-    <t>51S69J5S9HBRD4BRL</t>
-  </si>
-  <si>
-    <t>ZPM6CLYN296TLVTNB</t>
-  </si>
-  <si>
-    <t>2A69JDKYXB58ZSDKA</t>
-  </si>
-  <si>
-    <t>EG2FH7MD5CEGXMGUL</t>
-  </si>
-  <si>
-    <t>KV80FKLE7E1DMJ2EM</t>
-  </si>
-  <si>
-    <t>797KGTT55L1T6EUE0</t>
-  </si>
-  <si>
-    <t>P6GE5CGG7VFMWLFVA</t>
-  </si>
-  <si>
-    <t>ELE045379M50M1P3V</t>
-  </si>
-  <si>
-    <t>L1B36HKH2YE3AJ9UH</t>
-  </si>
-  <si>
-    <t>Y0HNS6RH15VZFUG7B</t>
-  </si>
-  <si>
-    <t>L19GDRVK2X7JLEUGN</t>
-  </si>
-  <si>
-    <t>KF975LV85674FG4A3</t>
-  </si>
-  <si>
-    <t>AXZ2906D1JKJDNX2Z</t>
-  </si>
-  <si>
-    <t>PX8YERS60S6N3HAWV</t>
-  </si>
-  <si>
-    <t>21MF6WL06JZ5FYYJL</t>
-  </si>
-  <si>
-    <t>YENRF14S6GGHAHDFC</t>
-  </si>
-  <si>
-    <t>TCSFS61BX9XN05B9C</t>
-  </si>
-  <si>
-    <t>1CJ5678F9PUP8A8R6</t>
-  </si>
-  <si>
-    <t>9H0LZJSV5G5ASPRP3</t>
-  </si>
-  <si>
-    <t>NR057ZNY816U4A6FD</t>
-  </si>
-  <si>
-    <t>20FM1AP6319FNG2K0</t>
-  </si>
-  <si>
-    <t>2YSYYW2L7H9EK89VF</t>
-  </si>
-  <si>
-    <t>SNH273G41PE1K5K75</t>
-  </si>
-  <si>
-    <t>5XTV728B4ZZ12NWJR</t>
-  </si>
-  <si>
-    <t>3NW5KLUW3G4D7HKNE</t>
-  </si>
-  <si>
-    <t>SWPV00HP272H8S24R</t>
-  </si>
-  <si>
-    <t>0LYU14J824LPAME99</t>
-  </si>
-  <si>
-    <t>1RDKZHZTXPFDUYXDY</t>
-  </si>
-  <si>
-    <t>L7U478506CZ4E2ZR2</t>
-  </si>
-  <si>
-    <t>5WR3Y0SW2VFHS841M</t>
-  </si>
-  <si>
-    <t>Michael Wolf</t>
-  </si>
-  <si>
-    <t>Kenneth Morgan</t>
-  </si>
-  <si>
-    <t>Kelly Jones</t>
-  </si>
-  <si>
-    <t>Jeffrey Stephenson</t>
-  </si>
-  <si>
-    <t>Dr. Kristin Robbins</t>
-  </si>
-  <si>
-    <t>Stacy Wallace</t>
-  </si>
-  <si>
-    <t>Carla Bryan</t>
-  </si>
-  <si>
-    <t>Clifford Ortiz</t>
-  </si>
-  <si>
-    <t>Colleen Reeves</t>
-  </si>
-  <si>
-    <t>James White</t>
-  </si>
-  <si>
-    <t>Amy Taylor</t>
-  </si>
-  <si>
-    <t>Julie Snow</t>
-  </si>
-  <si>
-    <t>Janice Washington</t>
-  </si>
-  <si>
-    <t>Billy Davis</t>
-  </si>
-  <si>
-    <t>James Martin</t>
-  </si>
-  <si>
-    <t>Megan Richards</t>
-  </si>
-  <si>
-    <t>Virginia Lewis</t>
-  </si>
-  <si>
-    <t>John Baker</t>
-  </si>
-  <si>
-    <t>Elizabeth Miller</t>
-  </si>
-  <si>
-    <t>Stephanie Perez</t>
-  </si>
-  <si>
-    <t>Lisa Salas</t>
-  </si>
-  <si>
-    <t>Pamela Hubbard</t>
-  </si>
-  <si>
-    <t>Kathryn Eaton</t>
-  </si>
-  <si>
-    <t>Taylor Gomez</t>
-  </si>
-  <si>
-    <t>Patricia Evans</t>
-  </si>
-  <si>
-    <t>Pamela Mcdowell</t>
-  </si>
-  <si>
-    <t>William Flores</t>
-  </si>
-  <si>
-    <t>Cheryl Carr</t>
-  </si>
-  <si>
-    <t>Michael Herrera</t>
-  </si>
-  <si>
-    <t>Maria Mooney DDS</t>
-  </si>
-  <si>
-    <t>Scott Osborne</t>
-  </si>
-  <si>
-    <t>Cheryl Smith</t>
-  </si>
-  <si>
-    <t>Benjamin Martinez</t>
-  </si>
-  <si>
-    <t>Mr. Michael Pitts Jr.</t>
-  </si>
-  <si>
-    <t>Ashley Park</t>
-  </si>
-  <si>
-    <t>Jill Ho</t>
-  </si>
-  <si>
-    <t>Jessica Wilson</t>
-  </si>
-  <si>
-    <t>Virginia Carroll</t>
-  </si>
-  <si>
-    <t>Elizabeth Elliott</t>
-  </si>
-  <si>
-    <t>Brenda Johnson</t>
-  </si>
-  <si>
-    <t>Joel Curtis</t>
-  </si>
-  <si>
-    <t>Amy Carson</t>
+    <t>5CJLUSHR0ZB7WC1N7</t>
+  </si>
+  <si>
+    <t>8DMF9L240Y708RKL0</t>
+  </si>
+  <si>
+    <t>T65P6N583LP09DHMK</t>
+  </si>
+  <si>
+    <t>Y0XWH8A70UK5AUF4Y</t>
+  </si>
+  <si>
+    <t>LF1U747W3F73X2BF3</t>
+  </si>
+  <si>
+    <t>DJNHXSCBX26CB9SEB</t>
+  </si>
+  <si>
+    <t>SSJ57SYBX67JDEN8E</t>
+  </si>
+  <si>
+    <t>A0YUPU9B5FHXF4SMK</t>
+  </si>
+  <si>
+    <t>BN0S9YKK0NS8S0JC5</t>
+  </si>
+  <si>
+    <t>5ZPH7TD69EX14GB96</t>
+  </si>
+  <si>
+    <t>3K6X146E8FVJZCNU2</t>
+  </si>
+  <si>
+    <t>MKC9GH168K6DAAGFD</t>
+  </si>
+  <si>
+    <t>ECXBE6MV7FJUM7HH0</t>
+  </si>
+  <si>
+    <t>U3JUNLRA5PF9Z8EN3</t>
+  </si>
+  <si>
+    <t>3KFPPHDGXJD7GUT5V</t>
+  </si>
+  <si>
+    <t>XXHLJSG21RL7FZMGW</t>
+  </si>
+  <si>
+    <t>2HPFUBXE2YFHZ148G</t>
+  </si>
+  <si>
+    <t>BN023LV68JJSCC79W</t>
+  </si>
+  <si>
+    <t>2NZHT5S77N0FZNRLF</t>
+  </si>
+  <si>
+    <t>7ZYYF0HGX15360YDY</t>
+  </si>
+  <si>
+    <t>SX5PFCAT8ZNNX5HXE</t>
+  </si>
+  <si>
+    <t>VS2Z87TJ2YBN23SX3</t>
+  </si>
+  <si>
+    <t>TU59JFZ28JR7YSH2J</t>
+  </si>
+  <si>
+    <t>NESM0JAF5AMWDXPL3</t>
+  </si>
+  <si>
+    <t>EMFD87HC16F6SXG5L</t>
+  </si>
+  <si>
+    <t>D44TGEZ36JTT1XDTK</t>
+  </si>
+  <si>
+    <t>7YW67KFA610LZCBZW</t>
+  </si>
+  <si>
+    <t>NE4C0FCS7GMSA7CJG</t>
+  </si>
+  <si>
+    <t>7RYRTG3K4SRTRMEBT</t>
+  </si>
+  <si>
+    <t>7CL7451T5RJHSNZTP</t>
+  </si>
+  <si>
+    <t>9LT9EV526C5T841FX</t>
+  </si>
+  <si>
+    <t>GBU962BY2UHRGSZ02</t>
+  </si>
+  <si>
+    <t>SFSLBH4H9XZKX5RCY</t>
+  </si>
+  <si>
+    <t>WHJ2263M2JRVA624W</t>
+  </si>
+  <si>
+    <t>SHRHSV1Z3JGA912ST</t>
+  </si>
+  <si>
+    <t>DLKH425721JY4JX79</t>
+  </si>
+  <si>
+    <t>3Y7LC2T666TD2BW4L</t>
+  </si>
+  <si>
+    <t>NJSXDHSD3GT467B7L</t>
+  </si>
+  <si>
+    <t>F4LSPXDW6K7CM68ME</t>
+  </si>
+  <si>
+    <t>KV604WYCXMPJ79ZXZ</t>
+  </si>
+  <si>
+    <t>8V2XNZPWX2T06VE39</t>
+  </si>
+  <si>
+    <t>W6BCAX0379ZH5NBC8</t>
+  </si>
+  <si>
+    <t>V5MZTM1D2L929AJHV</t>
+  </si>
+  <si>
+    <t>8G4F72J01YDHPM9KZ</t>
+  </si>
+  <si>
+    <t>Nicole Wagner</t>
+  </si>
+  <si>
+    <t>Evelyn Lee</t>
+  </si>
+  <si>
+    <t>Michelle Byrd</t>
+  </si>
+  <si>
+    <t>Natalie Diaz</t>
+  </si>
+  <si>
+    <t>Shelia Tate</t>
+  </si>
+  <si>
+    <t>Antonio Merritt</t>
+  </si>
+  <si>
+    <t>Cheryl Schwartz</t>
+  </si>
+  <si>
+    <t>Earl Olson</t>
+  </si>
+  <si>
+    <t>Thomas Kline</t>
+  </si>
+  <si>
+    <t>Andrea Graham</t>
+  </si>
+  <si>
+    <t>William Thompson</t>
+  </si>
+  <si>
+    <t>Brianna Russell</t>
+  </si>
+  <si>
+    <t>Amber Hartman</t>
+  </si>
+  <si>
+    <t>Jacob Jenkins</t>
+  </si>
+  <si>
+    <t>Michael Watson</t>
+  </si>
+  <si>
+    <t>Joshua Watts</t>
+  </si>
+  <si>
+    <t>Anne Case</t>
+  </si>
+  <si>
+    <t>Steven Norman</t>
+  </si>
+  <si>
+    <t>Matthew Brown</t>
+  </si>
+  <si>
+    <t>Rachel Doyle</t>
+  </si>
+  <si>
+    <t>Andrew Martin</t>
+  </si>
+  <si>
+    <t>Marissa Payne</t>
+  </si>
+  <si>
+    <t>Christy Perry</t>
+  </si>
+  <si>
+    <t>Gregory Smith</t>
+  </si>
+  <si>
+    <t>Katie Rice</t>
+  </si>
+  <si>
+    <t>Barbara Garrett</t>
+  </si>
+  <si>
+    <t>Julie Gonzalez</t>
+  </si>
+  <si>
+    <t>James Martinez</t>
+  </si>
+  <si>
+    <t>Gabriel Adams</t>
+  </si>
+  <si>
+    <t>Jessica Tucker</t>
+  </si>
+  <si>
+    <t>Ronald Galvan</t>
+  </si>
+  <si>
+    <t>Benjamin Welch</t>
+  </si>
+  <si>
+    <t>Ashley Bowers</t>
+  </si>
+  <si>
+    <t>Michael Dickerson</t>
+  </si>
+  <si>
+    <t>Brandon White</t>
+  </si>
+  <si>
+    <t>Diane Tyler</t>
+  </si>
+  <si>
+    <t>Christopher Clark</t>
+  </si>
+  <si>
+    <t>James Wood</t>
+  </si>
+  <si>
+    <t>Aaron Carter</t>
+  </si>
+  <si>
+    <t>Kyle Reyes</t>
+  </si>
+  <si>
+    <t>James Fritz</t>
+  </si>
+  <si>
+    <t>Stephen Wells</t>
+  </si>
+  <si>
+    <t>April Perez</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -674,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -728,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -745,10 +757,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -762,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -779,10 +791,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -796,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -813,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -830,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -847,10 +859,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -864,10 +876,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -881,10 +893,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -898,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -915,10 +927,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -932,10 +944,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -949,10 +961,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +978,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -980,13 +992,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -997,13 +1009,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1031,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1048,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1065,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1082,13 +1094,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1099,13 +1111,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1148,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1150,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1167,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1184,13 +1196,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1201,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1218,13 +1230,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1235,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1252,13 +1264,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1269,13 +1281,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1286,13 +1298,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1303,13 +1315,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1320,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1340,10 +1352,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1357,10 +1369,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1374,10 +1386,10 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1388,13 +1400,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1405,13 +1417,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1422,13 +1434,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1442,10 +1454,10 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1459,10 +1471,10 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1476,10 +1488,10 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1493,10 +1505,10 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1510,10 +1522,10 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1527,10 +1539,10 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1541,13 +1553,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1558,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1578,10 +1590,10 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1595,10 +1607,10 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1609,13 +1621,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1626,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1643,13 +1655,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1660,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1677,13 +1689,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1694,13 +1706,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1711,13 +1723,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1728,13 +1740,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1745,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1762,13 +1774,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1779,13 +1791,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1796,13 +1808,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1813,13 +1825,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
         <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1830,13 +1842,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1847,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1864,13 +1876,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1881,13 +1893,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1901,10 +1913,10 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1918,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1935,10 +1947,10 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1952,10 +1964,10 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1966,13 +1978,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1983,13 +1995,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2000,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2017,13 +2029,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2034,13 +2046,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2051,13 +2063,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2068,13 +2080,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
         <v>65</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2085,13 +2097,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2102,13 +2114,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
         <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2119,13 +2131,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2136,13 +2148,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
         <v>67</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2153,13 +2165,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
         <v>67</v>
       </c>
       <c r="E87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2170,13 +2182,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
         <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2187,10 +2199,10 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E89" t="s">
         <v>96</v>
@@ -2207,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2224,10 +2236,10 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2241,10 +2253,10 @@
         <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2255,13 +2267,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2275,10 +2287,10 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2292,10 +2304,10 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2306,13 +2318,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2323,13 +2335,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2340,13 +2352,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2357,13 +2369,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2374,13 +2386,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2391,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
         <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2408,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2428,10 +2440,10 @@
         <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2445,10 +2457,10 @@
         <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E104" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2459,10 +2471,10 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E105" t="s">
         <v>96</v>
@@ -2476,10 +2488,10 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s">
         <v>97</v>
@@ -2493,10 +2505,10 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E107" t="s">
         <v>98</v>
@@ -2510,10 +2522,10 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E108" t="s">
         <v>99</v>
@@ -2527,13 +2539,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E109" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2544,13 +2556,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E110" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2561,13 +2573,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E111" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2578,13 +2590,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E112" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2595,13 +2607,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E113" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2612,13 +2624,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E114" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2629,13 +2641,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2649,10 +2661,10 @@
         <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E116" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2663,13 +2675,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E117" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2680,13 +2692,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E118" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2697,13 +2709,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E119" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2714,13 +2726,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2731,13 +2743,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E121" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2748,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2765,13 +2777,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E123" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2782,13 +2794,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E124" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2799,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2816,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2833,13 +2845,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E127" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2850,13 +2862,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E128" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2867,13 +2879,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D129" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E129" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2887,10 +2899,10 @@
         <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E130" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2904,10 +2916,10 @@
         <v>33</v>
       </c>
       <c r="D131" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2921,10 +2933,10 @@
         <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E132" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2935,13 +2947,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E133" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2952,13 +2964,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2969,13 +2981,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E135" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2986,13 +2998,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E136" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3006,10 +3018,10 @@
         <v>34</v>
       </c>
       <c r="D137" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E137" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3023,10 +3035,10 @@
         <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E138" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3037,13 +3049,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3054,13 +3066,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D140" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E140" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3071,13 +3083,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E141" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3088,13 +3100,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3105,13 +3117,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3122,13 +3134,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E144" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3142,10 +3154,10 @@
         <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E145" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3159,10 +3171,10 @@
         <v>35</v>
       </c>
       <c r="D146" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E146" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3173,13 +3185,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E147" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3190,13 +3202,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E148" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3207,13 +3219,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E149" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3224,13 +3236,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3241,13 +3253,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E151" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3258,13 +3270,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E152" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3275,13 +3287,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E153" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3292,13 +3304,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E154" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3309,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E155" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3326,13 +3338,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E156" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3343,13 +3355,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E157" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3360,13 +3372,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E158" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3377,13 +3389,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E159" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3394,13 +3406,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E160" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3414,10 +3426,10 @@
         <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E161" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3428,13 +3440,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E162" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3445,13 +3457,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E163" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3465,10 +3477,10 @@
         <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E164" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3479,13 +3491,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E165" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3496,13 +3508,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E166" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3513,13 +3525,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E167" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3530,13 +3542,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E168" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3547,13 +3559,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E169" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3564,13 +3576,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3584,10 +3596,10 @@
         <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E171" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3601,10 +3613,10 @@
         <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E172" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3615,13 +3627,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3632,13 +3644,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3649,13 +3661,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E175" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3666,13 +3678,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E176" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3683,13 +3695,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E177" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3700,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D178" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E178" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3720,10 +3732,10 @@
         <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E179" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3737,10 +3749,10 @@
         <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E180" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3754,10 +3766,10 @@
         <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E181" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3768,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E182" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3785,13 +3797,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E183" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3802,13 +3814,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D184" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E184" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3819,13 +3831,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D185" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E185" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3836,13 +3848,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D186" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E186" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3856,10 +3868,10 @@
         <v>42</v>
       </c>
       <c r="D187" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E187" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3870,13 +3882,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D188" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E188" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3887,13 +3899,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D189" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E189" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3904,13 +3916,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E190" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3924,10 +3936,10 @@
         <v>43</v>
       </c>
       <c r="D191" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E191" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3941,10 +3953,10 @@
         <v>44</v>
       </c>
       <c r="D192" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E192" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3958,10 +3970,10 @@
         <v>44</v>
       </c>
       <c r="D193" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E193" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3975,10 +3987,10 @@
         <v>44</v>
       </c>
       <c r="D194" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E194" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3992,10 +4004,10 @@
         <v>44</v>
       </c>
       <c r="D195" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E195" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4009,10 +4021,10 @@
         <v>44</v>
       </c>
       <c r="D196" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E196" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4026,10 +4038,10 @@
         <v>44</v>
       </c>
       <c r="D197" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E197" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4043,10 +4055,10 @@
         <v>44</v>
       </c>
       <c r="D198" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E198" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4057,13 +4069,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D199" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E199" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4074,13 +4086,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E200" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4094,10 +4106,10 @@
         <v>45</v>
       </c>
       <c r="D201" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E201" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4111,10 +4123,10 @@
         <v>45</v>
       </c>
       <c r="D202" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E202" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4128,10 +4140,10 @@
         <v>45</v>
       </c>
       <c r="D203" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E203" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4142,13 +4154,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D204" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E204" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4159,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D205" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E205" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4176,13 +4188,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D206" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E206" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4196,10 +4208,10 @@
         <v>46</v>
       </c>
       <c r="D207" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E207" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4210,13 +4222,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E208" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4227,13 +4239,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E209" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4244,13 +4256,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D210" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E210" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4261,13 +4273,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E211" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4278,13 +4290,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D212" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E212" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4295,13 +4307,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D213" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E213" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4312,13 +4324,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D214" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E214" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4329,13 +4341,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D215" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E215" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4346,13 +4358,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D216" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E216" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4363,13 +4375,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D217" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E217" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4383,10 +4395,10 @@
         <v>49</v>
       </c>
       <c r="D218" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E218" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4400,10 +4412,10 @@
         <v>49</v>
       </c>
       <c r="D219" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E219" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4417,10 +4429,10 @@
         <v>49</v>
       </c>
       <c r="D220" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E220" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4434,10 +4446,10 @@
         <v>49</v>
       </c>
       <c r="D221" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E221" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4448,10 +4460,10 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D222" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E222" t="s">
         <v>96</v>
@@ -4465,13 +4477,13 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4482,13 +4494,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D224" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E224" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4499,13 +4511,98 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D225" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E225" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>51</v>
+      </c>
+      <c r="D226" t="s">
+        <v>95</v>
+      </c>
+      <c r="E226" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>51</v>
+      </c>
+      <c r="D227" t="s">
+        <v>95</v>
+      </c>
+      <c r="E227" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>51</v>
+      </c>
+      <c r="D228" t="s">
+        <v>95</v>
+      </c>
+      <c r="E228" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>51</v>
+      </c>
+      <c r="D229" t="s">
+        <v>95</v>
+      </c>
+      <c r="E229" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>51</v>
+      </c>
+      <c r="D230" t="s">
+        <v>95</v>
+      </c>
+      <c r="E230" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
